--- a/Python MP/MP_UnitOfMeasures.xlsx
+++ b/Python MP/MP_UnitOfMeasures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>Factor</t>
   </si>
@@ -56,6 +56,9 @@
     <t>20% BROKEN RICE_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
+    <t>20% BROKEN RICE_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>25% BROKEN RICE_BENIN_200721 [Non GMO]</t>
   </si>
   <si>
@@ -104,9 +107,24 @@
     <t>CANNED FISH_GUINEA-BISSAU_200846 [Non GMO]</t>
   </si>
   <si>
+    <t>CANNED FISH_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
+    <t>CANNED FISH_SENEGAL_200681 [Non GMO]</t>
+  </si>
+  <si>
+    <t>DRIED FRUITS_BURKINA FASO_200163 [Non GMO]</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_CAMEROON_200777 [Non GMO]</t>
   </si>
   <si>
+    <t>HIGH ENERGY BISCUITS_CEN.AFRICAN REP_200799 [Non GMO]</t>
+  </si>
+  <si>
+    <t>HIGH ENERGY BISCUITS_CHAD_200777 [Non GMO]</t>
+  </si>
+  <si>
     <t>HIGH ENERGY BISCUITS_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -158,6 +176,9 @@
     <t>IODISED SALT_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
+    <t>IODISED SALT_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>IODISED SALT_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -260,6 +281,9 @@
     <t>PALMOLIEN OIL_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
+    <t>PALMOLIEN OIL_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>PALMOLIEN OIL_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -272,6 +296,9 @@
     <t>PALMOLIEN OIL_NIGER_200961 [Non GMO]</t>
   </si>
   <si>
+    <t>PALMOLIEN OIL_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
     <t>PALMOLIEN OIL_SIERRA LEONE_200938 [Non GMO]</t>
   </si>
   <si>
@@ -281,9 +308,15 @@
     <t>PLUMPY DOZ_GAMBIA_200557 [Non GMO]</t>
   </si>
   <si>
+    <t>PLUMPY DOZ_GUINEA_200326 [Non GMO]</t>
+  </si>
+  <si>
     <t>PLUMPY DOZ_MALI_200719 [Non GMO]</t>
   </si>
   <si>
+    <t>PLUMPY DOZ_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
     <t>SORGHUM/MILLET_CAMEROON_200777 [Non GMO]</t>
   </si>
   <si>
@@ -353,12 +386,18 @@
     <t>SPLIT YELLOW PEAS_GAMBIA_200327 [Non GMO]</t>
   </si>
   <si>
+    <t>SPLIT YELLOW PEAS_GUINEA-BISSAU_200846 [Non GMO]</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
     <t>SPLIT YELLOW PEAS_LIBERIA_200395 [Non GMO]</t>
   </si>
   <si>
+    <t>SPLIT YELLOW PEAS_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>SPLIT YELLOW PEAS_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
     <t>SUPER CEREAL (CSB+) WITH SUGAR_GUINEA_200326 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_LIBERIA_200550 [Non GMO]</t>
+  </si>
+  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_MALI_200719 [Non GMO]</t>
   </si>
   <si>
@@ -419,6 +461,9 @@
     <t>SUPER CEREAL (CSB+) WITH SUGAR_NIGER_200961 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL (CSB+) WITH SUGAR_SENEGAL_200249 [Non GMO]</t>
+  </si>
+  <si>
     <t>SUPER CEREAL (CSB+) WITH SUGAR_SENEGAL_200681 [Non GMO]</t>
   </si>
   <si>
@@ -452,6 +497,12 @@
     <t>SUPER CEREAL PLUS (CSB++)_CHAD_200777 [Non GMO]</t>
   </si>
   <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CÔTE D'IVOIRE_200464 [Non GMO]</t>
+  </si>
+  <si>
+    <t>SUPER CEREAL PLUS (CSB++)_CÔTE D'IVOIRE_200960 [Non GMO]</t>
+  </si>
+  <si>
     <t>SUPER CEREAL PLUS (CSB++)_GUINEA-BISSAU_200846 [Non GMO]</t>
   </si>
   <si>
@@ -555,6 +606,9 @@
   </si>
   <si>
     <t>WHITE SUGAR_CHAD_200713 [Non GMO]</t>
+  </si>
+  <si>
+    <t>WHOLE GREEN LENTILS_MAURITANIA_200251 [Non GMO]</t>
   </si>
   <si>
     <t>WHOLE GREEN LENTILS_MAURITANIA_200640 [Non GMO]</t>
@@ -897,7 +951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,7 +1298,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="n">
-        <v>20.95</v>
+        <v>22.32758620689655</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1261,7 +1315,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="n">
-        <v>18.35083333333333</v>
+        <v>20.95</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1295,7 +1349,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="n">
-        <v>21</v>
+        <v>18.35083333333333</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1312,7 +1366,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="n">
-        <v>21</v>
+        <v>18.35083333333333</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1329,7 +1383,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="n">
-        <v>22.13428571428571</v>
+        <v>18.35083333333333</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1346,7 +1400,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="n">
-        <v>22.13428571428571</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1363,7 +1417,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="n">
-        <v>22.13428571428571</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1380,7 +1434,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="n">
-        <v>22.13428571428571</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1397,7 +1451,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="n">
-        <v>22.13428571428571</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1414,7 +1468,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="n">
-        <v>22.13428571428571</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1737,7 +1791,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1754,7 +1808,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1771,7 +1825,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1788,7 +1842,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1805,7 +1859,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1822,7 +1876,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1839,7 +1893,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="n">
-        <v>20.28571428571428</v>
+        <v>22.13428571428571</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1873,7 +1927,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="n">
-        <v>18.45066666666667</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1890,7 +1944,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="n">
-        <v>19.09366666666666</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1907,7 +1961,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="n">
-        <v>19.09366666666666</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1924,7 +1978,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="n">
-        <v>19.09366666666666</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1941,7 +1995,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="n">
-        <v>19.09366666666666</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -1958,7 +2012,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="n">
-        <v>19.09366666666666</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -1975,7 +2029,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="n">
-        <v>19.09366666666666</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -1992,7 +2046,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="n">
-        <v>19.09366666666666</v>
+        <v>18.45066666666667</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2264,7 +2318,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="n">
-        <v>17.9225</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2281,7 +2335,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="n">
-        <v>17.9225</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2298,7 +2352,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="n">
-        <v>17.9225</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2315,7 +2369,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="n">
-        <v>20.9</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2332,7 +2386,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="n">
-        <v>20.9</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2349,7 +2403,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="n">
-        <v>20.9</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2366,7 +2420,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="n">
-        <v>20.9</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2383,7 +2437,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="n">
-        <v>20.9</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2400,7 +2454,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="n">
-        <v>20.9</v>
+        <v>19.09366666666666</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2417,7 +2471,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="n">
-        <v>20.9</v>
+        <v>17.9225</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2434,7 +2488,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="n">
-        <v>20.9</v>
+        <v>17.9225</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2451,7 +2505,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="n">
-        <v>20.9</v>
+        <v>17.9225</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2468,7 +2522,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="n">
-        <v>20.9</v>
+        <v>17.9225</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -2485,7 +2539,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="n">
-        <v>19.55666666666666</v>
+        <v>17.9225</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -2502,7 +2556,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="n">
-        <v>19.55666666666666</v>
+        <v>20.9</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2519,7 +2573,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="n">
-        <v>19.55666666666666</v>
+        <v>20.9</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2536,7 +2590,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2553,7 +2607,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -2570,7 +2624,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -2587,7 +2641,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2604,7 +2658,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -2621,7 +2675,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -2638,7 +2692,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -2655,7 +2709,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="n">
-        <v>22.04347826086957</v>
+        <v>20.9</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -2672,7 +2726,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="n">
-        <v>22.04347826086957</v>
+        <v>19.55666666666666</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -2689,7 +2743,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="n">
-        <v>22.04347826086957</v>
+        <v>19.55666666666666</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -2706,7 +2760,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="n">
-        <v>22.04347826086957</v>
+        <v>19.55666666666666</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2774,7 +2828,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2791,7 +2845,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2808,7 +2862,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2825,7 +2879,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2842,7 +2896,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2859,7 +2913,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -2876,7 +2930,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -2893,7 +2947,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -2910,7 +2964,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -2927,7 +2981,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -2944,7 +2998,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -2961,7 +3015,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -2978,7 +3032,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="n">
-        <v>21.71904761904762</v>
+        <v>22.04347826086957</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3437,7 +3491,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3454,7 +3508,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3471,7 +3525,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -3488,7 +3542,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -3505,7 +3559,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -3522,7 +3576,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
@@ -3539,7 +3593,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -3556,7 +3610,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -3573,7 +3627,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -3590,7 +3644,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="n">
-        <v>17.9225</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -3607,7 +3661,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="n">
-        <v>20.28571428571428</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -3624,7 +3678,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="n">
-        <v>21.11379310344827</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -3641,7 +3695,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="n">
-        <v>22.0848275862069</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -3658,7 +3712,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="n">
-        <v>22.0848275862069</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -3675,7 +3729,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="n">
-        <v>22.0848275862069</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
@@ -3692,7 +3746,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="n">
-        <v>22.0848275862069</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
@@ -3709,7 +3763,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="n">
-        <v>22.0848275862069</v>
+        <v>21.71904761904762</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -3726,7 +3780,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="n">
-        <v>22.0848275862069</v>
+        <v>17.9225</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -3743,7 +3797,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="n">
-        <v>22.0848275862069</v>
+        <v>17.9225</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -3760,7 +3814,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="n">
-        <v>20.96153846153846</v>
+        <v>17.9225</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -3777,7 +3831,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="n">
-        <v>20.96153846153846</v>
+        <v>17.9225</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -3794,7 +3848,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="n">
-        <v>20.96153846153846</v>
+        <v>17.9225</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -3811,7 +3865,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="n">
-        <v>22.11789473684211</v>
+        <v>17.9225</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -3828,7 +3882,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="n">
-        <v>22.11789473684211</v>
+        <v>17.9225</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -3845,7 +3899,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="n">
-        <v>22.11789473684211</v>
+        <v>17.9225</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -3862,7 +3916,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="n">
-        <v>22.23809523809524</v>
+        <v>17.9225</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -3879,7 +3933,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="n">
-        <v>20.83333333333333</v>
+        <v>17.9225</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -3891,6 +3945,312 @@
         <v>5</v>
       </c>
       <c r="E176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>182</v>
+      </c>
+      <c r="D177" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="n">
+        <v>21.11379310344827</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>183</v>
+      </c>
+      <c r="D178" t="s">
+        <v>5</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="n">
+        <v>22.0848275862069</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>184</v>
+      </c>
+      <c r="D179" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="n">
+        <v>22.0848275862069</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>185</v>
+      </c>
+      <c r="D180" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="n">
+        <v>22.0848275862069</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>186</v>
+      </c>
+      <c r="D181" t="s">
+        <v>5</v>
+      </c>
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="n">
+        <v>22.0848275862069</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>187</v>
+      </c>
+      <c r="D182" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="n">
+        <v>22.0848275862069</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>188</v>
+      </c>
+      <c r="D183" t="s">
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="n">
+        <v>22.0848275862069</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" t="s">
+        <v>189</v>
+      </c>
+      <c r="D184" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="n">
+        <v>22.0848275862069</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>190</v>
+      </c>
+      <c r="D185" t="s">
+        <v>5</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="n">
+        <v>20.96153846153846</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" t="s">
+        <v>5</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="n">
+        <v>20.96153846153846</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="n">
+        <v>20.96153846153846</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>193</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="n">
+        <v>22.11789473684211</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>194</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="n">
+        <v>22.11789473684211</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>195</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="n">
+        <v>22.11789473684211</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" t="s">
+        <v>196</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="n">
+        <v>22.23809523809524</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" t="s">
+        <v>197</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="n">
+        <v>22.23809523809524</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" t="s">
+        <v>198</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" t="s">
+        <v>199</v>
+      </c>
+      <c r="D194" t="s">
+        <v>5</v>
+      </c>
+      <c r="E194" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3915,7 +4275,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1">
